--- a/data/dataset-HP.xlsx
+++ b/data/dataset-HP.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Desktop\Business Processes Design\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\PycharmProjects\Genetic-Algorithm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="17100" windowHeight="7896" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="12" windowWidth="17100" windowHeight="7896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="eil51" sheetId="1" r:id="rId1"/>
-    <sheet name="eil10" sheetId="4" r:id="rId2"/>
+    <sheet name="eil26" sheetId="4" r:id="rId1"/>
+    <sheet name="eil51" sheetId="1" r:id="rId2"/>
     <sheet name="eil76" sheetId="2" r:id="rId3"/>
     <sheet name="eil101" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -400,12 +400,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1329,12 +1836,6 @@
       <c r="K51" s="1"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D53" s="1">
-        <f>SUM(D1:D51)</f>
-        <v>1132</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1342,163 +1843,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L76"/>
   <sheetViews>
@@ -2886,12 +3232,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H101" sqref="G1:H101"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
